--- a/Assignment_1/energy_use.xlsx
+++ b/Assignment_1/energy_use.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruker\Documents\IN5410\Assignment_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna-\Documents\IN5410\Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24B3432E-125D-433B-962E-B399E3C9A8D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE19F8FE-FB8F-4011-8AFC-E894119FA67E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -222,15 +222,15 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -568,10 +568,10 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -799,7 +799,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="12">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F11" s="6">
         <v>6</v>

--- a/Assignment_1/energy_use.xlsx
+++ b/Assignment_1/energy_use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna-\Documents\IN5410\Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE19F8FE-FB8F-4011-8AFC-E894119FA67E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB8062D-4354-42CD-B293-5B05AD909BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
+    <workbookView xWindow="3012" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Appliances</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Hourly usage [kW]</t>
+  </si>
+  <si>
+    <t>Length</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -250,6 +253,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC158F0-E8DE-4F36-AD42-044F64E66C55}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +588,7 @@
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -599,72 +607,84 @@
       <c r="F1" s="16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="9">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
-        <f>C2/(F2-E2)</f>
-        <v>0.15</v>
+        <f>C2/G2</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E2" s="11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G2" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="9">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <f>C3/24</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
         <f>1.32*2</f>
         <v>2.64</v>
       </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3" si="0">C3/G3</f>
+        <v>0.11</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>23</v>
+      </c>
+      <c r="G3" s="19">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.5</v>
+      </c>
       <c r="D4" s="2">
-        <f>C4/24</f>
-        <v>0.11</v>
+        <f>C4/G4</f>
+        <v>0.15</v>
       </c>
       <c r="E4" s="11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="G4" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -675,16 +695,20 @@
         <v>3.9</v>
       </c>
       <c r="D5" s="2">
+        <f>C5/G5</f>
         <v>3.9</v>
       </c>
       <c r="E5" s="11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -695,7 +719,8 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="2">
-        <v>0.2</v>
+        <f>C6/G6</f>
+        <v>0.1</v>
       </c>
       <c r="E6" s="11">
         <v>18</v>
@@ -703,8 +728,11 @@
       <c r="F6" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -716,7 +744,8 @@
         <v>1.2</v>
       </c>
       <c r="D7" s="2">
-        <v>0.2</v>
+        <f>C7/G7</f>
+        <v>0.3</v>
       </c>
       <c r="E7" s="11">
         <v>16</v>
@@ -724,68 +753,83 @@
       <c r="F7" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="9">
-        <v>1.44</v>
+        <v>2.5</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <f>C8/G8</f>
+        <v>2.5</v>
       </c>
       <c r="E8" s="11">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="9">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <f>C9/G9</f>
+        <v>0.72</v>
       </c>
       <c r="E9" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G9" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="9">
-        <v>2.5</v>
+        <v>1.94</v>
       </c>
       <c r="D10" s="2">
-        <v>1.5</v>
+        <f>C10/G10</f>
+        <v>0.97</v>
       </c>
       <c r="E10" s="11">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
@@ -796,13 +840,17 @@
         <v>9.9</v>
       </c>
       <c r="D11" s="5">
-        <v>2</v>
+        <f>C11/G11</f>
+        <v>3.3000000000000003</v>
       </c>
       <c r="E11" s="12">
         <v>0</v>
       </c>
       <c r="F11" s="6">
         <v>6</v>
+      </c>
+      <c r="G11" s="20">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment_1/energy_use.xlsx
+++ b/Assignment_1/energy_use.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anna-\Documents\IN5410\Assignment_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruker\Documents\IN5410\Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB8062D-4354-42CD-B293-5B05AD909BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D789D86-F454-48A2-AA7A-CE0C2D379FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3012" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -576,10 +576,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -671,7 +671,7 @@
         <v>1.5</v>
       </c>
       <c r="D4" s="2">
-        <f>C4/G4</f>
+        <f t="shared" ref="D4:D11" si="1">C4/G4</f>
         <v>0.15</v>
       </c>
       <c r="E4" s="11">
@@ -695,7 +695,7 @@
         <v>3.9</v>
       </c>
       <c r="D5" s="2">
-        <f>C5/G5</f>
+        <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
       <c r="E5" s="11">
@@ -719,7 +719,7 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="2">
-        <f>C6/G6</f>
+        <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
       <c r="E6" s="11">
@@ -744,7 +744,7 @@
         <v>1.2</v>
       </c>
       <c r="D7" s="2">
-        <f>C7/G7</f>
+        <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
       <c r="E7" s="11">
@@ -768,7 +768,7 @@
         <v>2.5</v>
       </c>
       <c r="D8" s="2">
-        <f>C8/G8</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="E8" s="11">
@@ -792,7 +792,7 @@
         <v>1.44</v>
       </c>
       <c r="D9" s="2">
-        <f>C9/G9</f>
+        <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
       <c r="E9" s="11">
@@ -816,11 +816,11 @@
         <v>1.94</v>
       </c>
       <c r="D10" s="2">
-        <f>C10/G10</f>
+        <f t="shared" si="1"/>
         <v>0.97</v>
       </c>
       <c r="E10" s="11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3">
         <v>22</v>
@@ -840,7 +840,7 @@
         <v>9.9</v>
       </c>
       <c r="D11" s="5">
-        <f>C11/G11</f>
+        <f t="shared" si="1"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="E11" s="12">

--- a/Assignment_1/energy_use.xlsx
+++ b/Assignment_1/energy_use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruker\Documents\IN5410\Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D789D86-F454-48A2-AA7A-CE0C2D379FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34623910-5134-41DB-9C98-5B411B3325D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10488" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Appliances</t>
   </si>
@@ -77,21 +77,40 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Daily usage [kW]</t>
-  </si>
-  <si>
     <t>Hourly usage [kW]</t>
   </si>
   <si>
-    <t>Length</t>
+    <t>Cellphone charger</t>
+  </si>
+  <si>
+    <t>Game console</t>
+  </si>
+  <si>
+    <t>Wi-Fi router</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffee maker </t>
+  </si>
+  <si>
+    <t>Hair dryer</t>
+  </si>
+  <si>
+    <t>Microwave</t>
+  </si>
+  <si>
+    <t>Daily usage [kWh]</t>
+  </si>
+  <si>
+    <t>Length [h]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -130,66 +149,26 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -200,7 +179,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -213,52 +192,252 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC158F0-E8DE-4F36-AD42-044F64E66C55}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,49 +768,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>16</v>
+      <c r="G1" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="28">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="31">
         <f>C2/G2</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="34">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="38">
         <v>23</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="6">
         <v>24</v>
       </c>
     </row>
@@ -639,24 +818,24 @@
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="8">
         <v>0</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="29">
         <f>1.32*2</f>
         <v>2.64</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="32">
         <f t="shared" ref="D3" si="0">C3/G3</f>
         <v>0.11</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="35">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="39">
         <v>23</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="12">
         <v>24</v>
       </c>
     </row>
@@ -664,47 +843,47 @@
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="29">
         <v>1.5</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D11" si="1">C4/G4</f>
-        <v>0.15</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="D4" s="32">
+        <f t="shared" ref="D4:D17" si="1">C4/G4</f>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="E4" s="35">
         <v>10</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="39">
         <v>20</v>
       </c>
-      <c r="G4" s="19">
-        <v>10</v>
+      <c r="G4" s="12">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="8">
         <v>0</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="29">
         <v>3.9</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="32">
         <f t="shared" si="1"/>
         <v>3.9</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="35">
         <v>16</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="39">
         <v>18</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="12">
         <v>1</v>
       </c>
     </row>
@@ -712,23 +891,23 @@
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="8">
         <v>0</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="29">
         <v>0.5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="32">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="35">
         <v>18</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="39">
         <v>23</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="12">
         <v>5</v>
       </c>
     </row>
@@ -736,24 +915,24 @@
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="8">
         <v>0</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="29">
         <f>0.6*2</f>
         <v>1.2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="32">
         <f t="shared" si="1"/>
         <v>0.3</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="35">
         <v>16</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="39">
         <v>23</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="12">
         <v>4</v>
       </c>
     </row>
@@ -761,23 +940,23 @@
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="29">
         <v>2.5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="32">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="35">
         <v>20</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="39">
         <v>22</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="12">
         <v>1</v>
       </c>
     </row>
@@ -785,23 +964,23 @@
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="29">
         <v>1.44</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="32">
         <f t="shared" si="1"/>
         <v>0.72</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="35">
         <v>20</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="39">
         <v>23</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="12">
         <v>2</v>
       </c>
     </row>
@@ -809,48 +988,192 @@
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="29">
         <v>1.94</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="32">
         <f t="shared" si="1"/>
         <v>0.97</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="35">
         <v>17</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="39">
         <v>22</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="27">
         <v>1</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="30">
         <v>9.9</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="33">
         <f t="shared" si="1"/>
         <v>3.3000000000000003</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="36">
         <v>0</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="40">
         <v>6</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="37">
         <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="1"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="E13" s="11">
+        <v>18</v>
+      </c>
+      <c r="F13" s="8">
+        <v>23</v>
+      </c>
+      <c r="G13" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="1"/>
+        <v>5.8333333333333336E-3</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>23</v>
+      </c>
+      <c r="G14" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="E15" s="11">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8">
+        <v>8</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="8">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+      <c r="E16" s="11">
+        <v>6</v>
+      </c>
+      <c r="F16" s="8">
+        <v>8</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="E17" s="17">
+        <v>16</v>
+      </c>
+      <c r="F17" s="14">
+        <v>22</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment_1/energy_use.xlsx
+++ b/Assignment_1/energy_use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruker\Documents\IN5410\Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34623910-5134-41DB-9C98-5B411B3325D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B34571-4E8D-4998-BDA7-563514373028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="10488" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
+    <workbookView xWindow="20120" yWindow="330" windowWidth="17280" windowHeight="10490" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -378,11 +378,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -438,6 +447,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC158F0-E8DE-4F36-AD42-044F64E66C55}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,7 +779,7 @@
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -789,8 +801,9 @@
       <c r="G1" s="25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -814,7 +827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -839,7 +852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -863,7 +876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -887,7 +900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -911,7 +924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
@@ -936,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -960,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
@@ -984,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -1008,7 +1021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +1045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1040,11 +1053,11 @@
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>0.01</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="1"/>
-        <v>3.3333333333333335E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -1056,7 +1069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1080,7 +1093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
@@ -1104,7 +1117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>18</v>
       </c>
@@ -1128,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>19</v>
       </c>

--- a/Assignment_1/energy_use.xlsx
+++ b/Assignment_1/energy_use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruker\Documents\IN5410\Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B34571-4E8D-4998-BDA7-563514373028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB0EF6F-E4DD-4060-A9C1-1B256E384A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20120" yWindow="330" windowWidth="17280" windowHeight="10490" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
+    <workbookView xWindow="3120" yWindow="708" windowWidth="17280" windowHeight="10296" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -767,7 +767,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Assignment_1/energy_use.xlsx
+++ b/Assignment_1/energy_use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruker\Documents\IN5410\Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB0EF6F-E4DD-4060-A9C1-1B256E384A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EE7127-E3F8-49D4-8A5D-D879D604136F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="708" windowWidth="17280" windowHeight="10296" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
+    <workbookView xWindow="42000" yWindow="1395" windowWidth="11280" windowHeight="12195" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -767,7 +767,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,7 +891,7 @@
         <v>3.9</v>
       </c>
       <c r="E5" s="35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="39">
         <v>18</v>

--- a/Assignment_1/energy_use.xlsx
+++ b/Assignment_1/energy_use.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruker\Documents\IN5410\Assignment_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EE7127-E3F8-49D4-8A5D-D879D604136F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FECF89FD-587B-4415-A198-C137A36C83CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42000" yWindow="1395" windowWidth="11280" windowHeight="12195" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB4E30CE-6A56-450F-817C-6BFB86094A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -767,7 +767,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -967,7 +967,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="39">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G8" s="12">
         <v>1</v>
@@ -1012,10 +1012,10 @@
         <v>0.97</v>
       </c>
       <c r="E10" s="35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" s="39">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="12">
         <v>2</v>
